--- a/biology/Histoire de la zoologie et de la botanique/John_Ozro_Corliss/John_Ozro_Corliss.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Ozro_Corliss/John_Ozro_Corliss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Ozro Corliss, né le 23 février 1922 à Coats (Kansas) et mort le 21 décembre 2014 à Philadelphie, est un protozoologiste et microbiologiste américain[1],[2],[3],[4].
-Il a été fait docteur honoris causa de l'université Blaise-Pascal (Clermont-Ferrand II) en 1972[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Ozro Corliss, né le 23 février 1922 à Coats (Kansas) et mort le 21 décembre 2014 à Philadelphie, est un protozoologiste et microbiologiste américain.
+Il a été fait docteur honoris causa de l'université Blaise-Pascal (Clermont-Ferrand II) en 1972.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) B.M. Honigberg, W. Balamuth, E.C. Bovee, J.O. Corliss, M. Gojdics, R.P. Hall, R.R. Kudo, N.D. Levine, A.R. Loeblich Jr., J. Weiser &amp; D.H. Wenrich, "A revised classification of the phylum Protozoa", Journal of Protozoology, Vol.11, No.1, February 1964, p.7-20. DOI 10.1111/j.1550-7408.1964.tb01715.x
 (en) John O. Corliss, "The Value of Ontogenetic Data in Reconstructing Protozoan Phylogenies", Transactions of the American Microscopical Society, Vol.87, No.1, January 1968, p.1-20. JSTOR:3224333
